--- a/Datos/Database by set/Set with text box/Xlsx sets/Friday Night Magic 2017 (F17).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Friday Night Magic 2017 (F17).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A64"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,441 +444,84 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Aether Hub</t>
+          <t>('Aether Hub', ['Land', 'When Aether Hub enters the battlefield, you get {E} (an energy counter).', '{T}: Add {C}.', '{T}, Pay {E}: Add one mana of any color.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Land</t>
+          <t>('Dinosaur', ['Token Creature — Dinosaur', 'Trample', '3/3', 'Treasure', 'Token Artifact — Treasure', '{T}, Sacrifice this artifact: Add one mana of any color.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>When Aether Hub enters the battlefield, you get {E} (an energy counter).</t>
+          <t>('Fatal Push', ['{B}', 'Instant', 'Destroy target creature if it has converted mana cost 2 or less.', 'Revolt — Destroy that creature if it has converted mana cost 4 or less instead if a permanent you controlled left the battlefield this turn.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>{T}: Add {C}.</t>
+          <t>("Fortune's Favor", ['{3}{U}', 'Instant', 'Target opponent looks at the top four cards of your library and separates them into a face-down pile and a face-up pile. Put one pile into your hand and the other into your graveyard.'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>{T}, Pay {E}: Add one mana of any color.</t>
+          <t>('Incendiary Flow', ['{1}{R}', 'Sorcery', 'Incendiary Flow deals 3 damage to any target. If a creature dealt damage this way would die this turn, exile it instead.'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dinosaur</t>
+          <t>('Noose Constrictor', ['{1}{G}', 'Creature — Snake', 'Reach', 'Discard a card: Noose Constrictor gets +1/+1 until end of turn.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Token Creature — Dinosaur</t>
+          <t>('Pirate', ['Token Creature — Pirate', 'Menace', '2/2', 'Treasure', 'Token Artifact — Treasure', '{T}, Sacrifice this artifact: Add one mana of any color.'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Trample</t>
+          <t>('Renegade Rallier', ['{1}{G}{W}', 'Creature — Human Warrior', 'Revolt — When Renegade Rallier enters the battlefield, if a permanent you controlled left the battlefield this turn, return target permanent card with converted mana cost 2 or less from your graveyard to the battlefield.', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>('Reverse Engineer', ['{3}{U}{U}', 'Sorcery', 'Improvise (Your artifacts can help cast this spell. Each artifact you tap after you’re done activating mana abilities pays for {1}.)', 'Draw three cards.'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Treasure</t>
+          <t>('Servo Exhibition', ['{1}{W}', 'Sorcery', 'Create two 1/1 colorless Servo artifact creature tokens.'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Token Artifact — Treasure</t>
+          <t>('Unlicensed Disintegration', ['{1}{B}{R}', 'Instant', 'Destroy target creature. If you control an artifact, Unlicensed Disintegration deals 3 damage to that creature’s controller.'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>{T}, Sacrifice this artifact: Add one mana of any color.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Fatal Push</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Destroy target creature if it has converted mana cost 2 or less.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Revolt — Destroy that creature if it has converted mana cost 4 or less instead if a permanent you controlled left the battlefield this turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Fortune's Favor</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>{3}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Target opponent looks at the top four cards of your library and separates them into a face-down pile and a face-up pile. Put one pile into your hand and the other into your graveyard.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Incendiary Flow</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>{1}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Incendiary Flow deals 3 damage to any target. If a creature dealt damage this way would die this turn, exile it instead.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Noose Constrictor</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>{1}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Creature — Snake</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Reach</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Discard a card: Noose Constrictor gets +1/+1 until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Pirate</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Token Creature — Pirate</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Menace</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Treasure</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Token Artifact — Treasure</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>{T}, Sacrifice this artifact: Add one mana of any color.</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Renegade Rallier</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>{1}{G}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Creature — Human Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Revolt — When Renegade Rallier enters the battlefield, if a permanent you controlled left the battlefield this turn, return target permanent card with converted mana cost 2 or less from your graveyard to the battlefield.</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>3/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Reverse Engineer</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>{3}{U}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Improvise (Your artifacts can help cast this spell. Each artifact you tap after you’re done activating mana abilities pays for {1}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Draw three cards.</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Servo Exhibition</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>{1}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Create two 1/1 colorless Servo artifact creature tokens.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Unlicensed Disintegration</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>{1}{B}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Destroy target creature. If you control an artifact, Unlicensed Disintegration deals 3 damage to that creature’s controller.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Vampire</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Token Creature — Vampire</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Lifelink</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Treasure</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Token Artifact — Treasure</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>{T}, Sacrifice this artifact: Add one mana of any color.</t>
+          <t>('Vampire', ['Token Creature — Vampire', 'Lifelink', '1/1', 'Treasure', 'Token Artifact — Treasure', '{T}, Sacrifice this artifact: Add one mana of any color.'])</t>
         </is>
       </c>
     </row>
